--- a/temp_traits_baiaoyun.xlsx
+++ b/temp_traits_baiaoyun.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FangCloudSync\R_WD360\Project\soyplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619D2136-35F2-4046-AA2A-8E7BD0D3FDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68B38A6-DA5E-4A1C-90F3-B9392E7A4D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3795" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trait_template" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">trait_template!$B$2:$J$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">trait_template!$B$2:$J$64</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="231">
   <si>
     <t>编码TRAIT_CODE</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -409,9 +409,6 @@
     <t>1-圆,2-扁圆,3-椭圆,4-扁椭圆,5-长椭圆,6-肾,99-分离</t>
   </si>
   <si>
-    <t>1-黄,2-黑,3-青黄,99-分离</t>
-  </si>
-  <si>
     <t>1-黄,2-绿,99-分离</t>
   </si>
   <si>
@@ -827,6 +824,57 @@
   </si>
   <si>
     <t>0-免疫,1-高抗,3-抗,5-中抗,7-感,9-高感</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T116</t>
+  </si>
+  <si>
+    <t>T117</t>
+  </si>
+  <si>
+    <t>T118</t>
+  </si>
+  <si>
+    <t>T119</t>
+  </si>
+  <si>
+    <t>活秆成熟_C</t>
+  </si>
+  <si>
+    <t>huoganchengshu</t>
+  </si>
+  <si>
+    <t>早衰_C</t>
+  </si>
+  <si>
+    <t>zaoshuai</t>
+  </si>
+  <si>
+    <t>产量_C</t>
+  </si>
+  <si>
+    <t>chanliang</t>
+  </si>
+  <si>
+    <t>测产株数_C</t>
+  </si>
+  <si>
+    <t>cechanzhushu</t>
+  </si>
+  <si>
+    <t>T120</t>
+  </si>
+  <si>
+    <t>选单株数_C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xuandanzhushu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-黄,2-绿,3-黑,4-褐,5-双色,99-分离</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -834,7 +882,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,6 +960,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -997,7 +1053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1100,15 +1156,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1617,7 +1676,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="B2:M59" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="B2:M64" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <tableColumns count="12">
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="性状名称TRAIT_NAME" dataDxfId="11"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="名称缩写ABBR_NAME" dataDxfId="10"/>
@@ -1933,11 +1992,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1959,16 +2018,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -2013,13 +2072,13 @@
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="15">
         <v>2</v>
@@ -2033,19 +2092,19 @@
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>13</v>
@@ -2062,19 +2121,19 @@
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>14</v>
@@ -2090,22 +2149,22 @@
         <v>3</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>15</v>
@@ -2121,22 +2180,22 @@
         <v>4</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>16</v>
@@ -2155,19 +2214,19 @@
         <v>71</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>17</v>
@@ -2186,19 +2245,19 @@
         <v>72</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>18</v>
@@ -2215,19 +2274,19 @@
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>19</v>
@@ -2243,22 +2302,22 @@
         <v>8</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>20</v>
@@ -2274,22 +2333,22 @@
         <v>9</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>21</v>
@@ -2308,19 +2367,19 @@
         <v>73</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>22</v>
@@ -2339,19 +2398,19 @@
         <v>72</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>23</v>
@@ -2370,19 +2429,19 @@
         <v>74</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>24</v>
@@ -2401,19 +2460,19 @@
         <v>74</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>25</v>
@@ -2432,19 +2491,19 @@
         <v>75</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>26</v>
@@ -2461,19 +2520,19 @@
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>27</v>
@@ -2492,19 +2551,19 @@
         <v>72</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>28</v>
@@ -2523,19 +2582,19 @@
         <v>76</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>29</v>
@@ -2551,22 +2610,22 @@
         <v>18</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>30</v>
@@ -2583,19 +2642,19 @@
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>31</v>
@@ -2614,19 +2673,19 @@
         <v>72</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>32</v>
@@ -2643,19 +2702,19 @@
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>33</v>
@@ -2672,19 +2731,19 @@
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>34</v>
@@ -2707,19 +2766,19 @@
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>35</v>
@@ -2738,19 +2797,19 @@
         <v>72</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>36</v>
@@ -2769,19 +2828,19 @@
         <v>77</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>37</v>
@@ -2797,22 +2856,22 @@
         <v>26</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>38</v>
@@ -2831,19 +2890,19 @@
         <v>78</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>39</v>
@@ -2868,19 +2927,19 @@
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>40</v>
@@ -2905,19 +2964,19 @@
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>41</v>
@@ -2940,19 +2999,19 @@
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M32" s="12"/>
     </row>
     <row r="33" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>42</v>
@@ -2975,19 +3034,19 @@
       </c>
       <c r="J33" s="15"/>
       <c r="K33" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M33" s="12"/>
     </row>
     <row r="34" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>43</v>
@@ -3010,19 +3069,19 @@
       </c>
       <c r="J34" s="15"/>
       <c r="K34" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M34" s="12"/>
     </row>
     <row r="35" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>44</v>
@@ -3045,19 +3104,19 @@
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M35" s="12"/>
     </row>
     <row r="36" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>45</v>
@@ -3082,19 +3141,19 @@
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M36" s="12"/>
     </row>
     <row r="37" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>46</v>
@@ -3111,19 +3170,19 @@
       </c>
       <c r="J37" s="15"/>
       <c r="K37" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M37" s="12"/>
     </row>
     <row r="38" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>47</v>
@@ -3148,19 +3207,19 @@
       </c>
       <c r="J38" s="15"/>
       <c r="K38" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M38" s="12"/>
     </row>
     <row r="39" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>48</v>
@@ -3179,19 +3238,19 @@
         <v>79</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M39" s="12"/>
     </row>
     <row r="40" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>49</v>
@@ -3207,22 +3266,22 @@
         <v>38</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M40" s="12"/>
     </row>
     <row r="41" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>50</v>
@@ -3238,22 +3297,22 @@
         <v>39</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M41" s="12"/>
     </row>
     <row r="42" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>51</v>
@@ -3269,22 +3328,22 @@
         <v>40</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M42" s="12"/>
     </row>
     <row r="43" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>52</v>
@@ -3300,22 +3359,22 @@
         <v>41</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M43" s="12"/>
     </row>
     <row r="44" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>53</v>
@@ -3334,19 +3393,19 @@
         <v>72</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M44" s="12"/>
     </row>
     <row r="45" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>54</v>
@@ -3363,19 +3422,19 @@
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>55</v>
@@ -3400,19 +3459,19 @@
       </c>
       <c r="J46" s="15"/>
       <c r="K46" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M46" s="12"/>
     </row>
     <row r="47" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>56</v>
@@ -3437,19 +3496,19 @@
       </c>
       <c r="J47" s="15"/>
       <c r="K47" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L47" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M47" s="12"/>
     </row>
     <row r="48" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>57</v>
@@ -3474,19 +3533,19 @@
       </c>
       <c r="J48" s="15"/>
       <c r="K48" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M48" s="12"/>
     </row>
     <row r="49" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>58</v>
@@ -3511,19 +3570,19 @@
       </c>
       <c r="J49" s="15"/>
       <c r="K49" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M49" s="12"/>
     </row>
     <row r="50" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>59</v>
@@ -3540,19 +3599,19 @@
       </c>
       <c r="J50" s="15"/>
       <c r="K50" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M50" s="12"/>
     </row>
     <row r="51" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>60</v>
@@ -3569,19 +3628,19 @@
       </c>
       <c r="J51" s="15"/>
       <c r="K51" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M51" s="12"/>
     </row>
     <row r="52" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>61</v>
@@ -3598,19 +3657,19 @@
       </c>
       <c r="J52" s="15"/>
       <c r="K52" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M52" s="12"/>
     </row>
     <row r="53" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>62</v>
@@ -3633,19 +3692,19 @@
       </c>
       <c r="J53" s="15"/>
       <c r="K53" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M53" s="12"/>
     </row>
     <row r="54" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>63</v>
@@ -3668,19 +3727,19 @@
       </c>
       <c r="J54" s="15"/>
       <c r="K54" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M54" s="12"/>
     </row>
     <row r="55" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>64</v>
@@ -3703,22 +3762,22 @@
       </c>
       <c r="J55" s="15"/>
       <c r="K55" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M55" s="12"/>
     </row>
     <row r="56" spans="1:13" s="26" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="C56" s="21" t="s">
         <v>203</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>204</v>
       </c>
       <c r="D56" s="22">
         <v>3</v>
@@ -3734,22 +3793,22 @@
         <v>74</v>
       </c>
       <c r="K56" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L56" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M56" s="12"/>
     </row>
     <row r="57" spans="1:13" s="34" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="C57" s="28" t="s">
         <v>206</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>207</v>
       </c>
       <c r="D57" s="29">
         <v>3</v>
@@ -3762,33 +3821,33 @@
         <v>54</v>
       </c>
       <c r="J57" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="K57" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="L57" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="M57" s="33"/>
+    </row>
+    <row r="58" spans="1:13" s="26" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="K57" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="L57" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="M57" s="33"/>
-    </row>
-    <row r="58" spans="1:13" s="26" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="B58" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D58" s="22">
         <v>3</v>
       </c>
       <c r="E58" s="21"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
       <c r="I58" s="23">
         <v>55</v>
       </c>
@@ -3796,46 +3855,189 @@
         <v>74</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L58" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="M58" s="37"/>
-    </row>
-    <row r="59" spans="1:13" s="26" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="M58" s="36"/>
+    </row>
+    <row r="59" spans="1:13" s="26" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D59" s="22">
         <v>3</v>
       </c>
       <c r="E59" s="21"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
       <c r="I59" s="23">
         <v>56</v>
       </c>
       <c r="J59" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="L59" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="M59" s="36"/>
+    </row>
+    <row r="60" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="K59" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="L59" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="M59" s="37"/>
+      <c r="B60" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D60" s="23">
+        <v>3</v>
+      </c>
+      <c r="E60" s="23"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="L60" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="M60" s="12"/>
+    </row>
+    <row r="61" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D61" s="23">
+        <v>3</v>
+      </c>
+      <c r="E61" s="23"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="L61" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="M61" s="12"/>
+    </row>
+    <row r="62" spans="1:13" ht="36.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D62" s="23">
+        <v>1</v>
+      </c>
+      <c r="E62" s="23"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="L62" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="M62" s="12"/>
+    </row>
+    <row r="63" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D63" s="23">
+        <v>1</v>
+      </c>
+      <c r="E63" s="23"/>
+      <c r="F63" s="24">
+        <v>0</v>
+      </c>
+      <c r="G63" s="24">
+        <v>1000</v>
+      </c>
+      <c r="H63" s="24"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="L63" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="M63" s="12"/>
+    </row>
+    <row r="64" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D64" s="23">
+        <v>1</v>
+      </c>
+      <c r="E64" s="23"/>
+      <c r="F64" s="24">
+        <v>0</v>
+      </c>
+      <c r="G64" s="24">
+        <v>1000</v>
+      </c>
+      <c r="H64" s="24"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="L64" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="M64" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D4:D3411">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D4:D3409">
     <sortCondition ref="D4"/>
   </sortState>
   <mergeCells count="1">

--- a/temp_traits_baiaoyun.xlsx
+++ b/temp_traits_baiaoyun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FangCloudSync\R_WD360\Project\soyplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A44E0DE-0E09-4904-B09A-C1F441CB3F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A425A9B3-4A0E-4231-9DBB-2228F9D93CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4560" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-795" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trait_template" sheetId="1" r:id="rId1"/>
@@ -1358,9 +1358,6 @@
     <t>小区面积(m2)_C</t>
   </si>
   <si>
-    <t>xiaoqumiaoji</t>
-  </si>
-  <si>
     <t>yield</t>
   </si>
   <si>
@@ -1545,9 +1542,6 @@
   </si>
   <si>
     <t>亩产(kg)_C</t>
-  </si>
-  <si>
-    <t>chanliang</t>
   </si>
   <si>
     <t>59</t>
@@ -1632,6 +1626,14 @@
   <si>
     <t>chongshililv</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoqumianji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>muchan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2628,8 +2630,8 @@
   <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B135" sqref="B135"/>
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A121" sqref="A121:XFD121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6302,7 +6304,7 @@
         <v>396</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>397</v>
+        <v>484</v>
       </c>
       <c r="D105" s="7">
         <v>1</v>
@@ -6329,19 +6331,19 @@
         <v>244</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M105" s="7"/>
     </row>
     <row r="106" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="C106" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>401</v>
       </c>
       <c r="D106" s="6">
         <v>1</v>
@@ -6368,19 +6370,19 @@
         <v>244</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M106" s="6"/>
     </row>
     <row r="107" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="C107" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="D107" s="7">
         <v>1</v>
@@ -6392,7 +6394,7 @@
         <v>102</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>19</v>
@@ -6407,19 +6409,19 @@
         <v>244</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M107" s="7"/>
     </row>
     <row r="108" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="C108" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>409</v>
       </c>
       <c r="D108" s="6">
         <v>1</v>
@@ -6446,19 +6448,19 @@
         <v>244</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M108" s="6"/>
     </row>
     <row r="109" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="C109" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="D109" s="7">
         <v>4</v>
@@ -6481,19 +6483,19 @@
         <v>244</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M109" s="7"/>
     </row>
     <row r="110" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="C110" s="6" t="s">
         <v>415</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>416</v>
       </c>
       <c r="D110" s="6">
         <v>4</v>
@@ -6507,7 +6509,7 @@
         <v>20</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J110" s="6" t="s">
         <v>21</v>
@@ -6516,19 +6518,19 @@
         <v>244</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M110" s="6"/>
     </row>
     <row r="111" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="C111" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="D111" s="7">
         <v>4</v>
@@ -6551,19 +6553,19 @@
         <v>244</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M111" s="7"/>
     </row>
     <row r="112" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="C112" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="D112" s="6">
         <v>1</v>
@@ -6590,19 +6592,19 @@
         <v>244</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M112" s="6"/>
     </row>
     <row r="113" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="C113" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="D113" s="7">
         <v>1</v>
@@ -6620,7 +6622,7 @@
         <v>19</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J113" s="7" t="s">
         <v>21</v>
@@ -6629,19 +6631,19 @@
         <v>244</v>
       </c>
       <c r="L113" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M113" s="7"/>
     </row>
     <row r="114" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="C114" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
@@ -6659,7 +6661,7 @@
         <v>19</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J114" s="6" t="s">
         <v>21</v>
@@ -6668,19 +6670,19 @@
         <v>244</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M114" s="6"/>
     </row>
     <row r="115" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="C115" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="D115" s="7">
         <v>1</v>
@@ -6692,34 +6694,34 @@
         <v>20</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I115" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="J115" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="J115" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="K115" s="7" t="s">
         <v>244</v>
       </c>
       <c r="L115" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M115" s="7"/>
     </row>
     <row r="116" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="C116" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>441</v>
       </c>
       <c r="D116" s="6">
         <v>3</v>
@@ -6746,13 +6748,13 @@
     </row>
     <row r="117" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="C117" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="D117" s="7">
         <v>3</v>
@@ -6764,7 +6766,7 @@
         <v>20</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J117" s="7" t="s">
         <v>284</v>
@@ -6779,13 +6781,13 @@
     </row>
     <row r="118" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="C118" s="6" t="s">
         <v>447</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>448</v>
       </c>
       <c r="D118" s="6">
         <v>3</v>
@@ -6797,10 +6799,10 @@
         <v>20</v>
       </c>
       <c r="I118" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="J118" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="J118" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="K118" s="6" t="s">
         <v>244</v>
@@ -6812,13 +6814,13 @@
     </row>
     <row r="119" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="C119" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="D119" s="7">
         <v>3</v>
@@ -6830,10 +6832,10 @@
         <v>20</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K119" s="7" t="s">
         <v>244</v>
@@ -6845,13 +6847,13 @@
     </row>
     <row r="120" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="C120" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>456</v>
       </c>
       <c r="D120" s="6">
         <v>3</v>
@@ -6863,10 +6865,10 @@
         <v>20</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K120" s="6" t="s">
         <v>244</v>
@@ -6878,13 +6880,13 @@
     </row>
     <row r="121" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>459</v>
-      </c>
       <c r="C121" s="7" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="D121" s="7">
         <v>1</v>
@@ -6902,7 +6904,7 @@
         <v>19</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J121" s="7" t="s">
         <v>21</v>
@@ -6917,13 +6919,13 @@
     </row>
     <row r="122" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>462</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>464</v>
       </c>
       <c r="D122" s="6">
         <v>1</v>
@@ -6939,7 +6941,7 @@
         <v>19</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J122" s="6" t="s">
         <v>21</v>
@@ -6954,13 +6956,13 @@
     </row>
     <row r="123" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C123" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="D123" s="7">
         <v>1</v>
@@ -6978,7 +6980,7 @@
         <v>20</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J123" s="7" t="s">
         <v>21</v>
@@ -6987,19 +6989,19 @@
         <v>244</v>
       </c>
       <c r="L123" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M123" s="7"/>
     </row>
     <row r="124" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="D124" s="6">
         <v>4</v>
@@ -7011,7 +7013,7 @@
         <v>20</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J124" s="6" t="s">
         <v>21</v>
@@ -7026,13 +7028,13 @@
     </row>
     <row r="125" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D125" s="7">
         <v>1</v>
@@ -7063,13 +7065,13 @@
     </row>
     <row r="126" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D126" s="6">
         <v>1</v>
@@ -7100,13 +7102,13 @@
     </row>
     <row r="127" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D127" s="7">
         <v>1</v>
@@ -7137,13 +7139,13 @@
     </row>
     <row r="128" spans="1:13" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D128" s="6">
         <v>1</v>
